--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H2">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N2">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O2">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P2">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q2">
-        <v>8.591430577674638</v>
+        <v>6.231942574245665</v>
       </c>
       <c r="R2">
-        <v>8.591430577674638</v>
+        <v>37.39165544547399</v>
       </c>
       <c r="S2">
-        <v>0.2724896296719846</v>
+        <v>0.1076101691320717</v>
       </c>
       <c r="T2">
-        <v>0.2724896296719846</v>
+        <v>0.1052020285754561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H3">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P3">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q3">
-        <v>4.107315624114452</v>
+        <v>3.186884315774</v>
       </c>
       <c r="R3">
-        <v>4.107315624114452</v>
+        <v>28.681958841966</v>
       </c>
       <c r="S3">
-        <v>0.1302694473571393</v>
+        <v>0.0550295764344872</v>
       </c>
       <c r="T3">
-        <v>0.1302694473571393</v>
+        <v>0.08069715602970978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H4">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N4">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O4">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P4">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q4">
-        <v>3.642588888744883</v>
+        <v>2.684009523176222</v>
       </c>
       <c r="R4">
-        <v>3.642588888744883</v>
+        <v>24.156085708586</v>
       </c>
       <c r="S4">
-        <v>0.1155299677239583</v>
+        <v>0.046346177824985</v>
       </c>
       <c r="T4">
-        <v>0.1155299677239583</v>
+        <v>0.06796353862138065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H5">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N5">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O5">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P5">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q5">
-        <v>3.917835853154914</v>
+        <v>2.841908064702111</v>
       </c>
       <c r="R5">
-        <v>3.917835853154914</v>
+        <v>25.577172582319</v>
       </c>
       <c r="S5">
-        <v>0.1242598227489555</v>
+        <v>0.04907269344300881</v>
       </c>
       <c r="T5">
-        <v>0.1242598227489555</v>
+        <v>0.07196178957115935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H6">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N6">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O6">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P6">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q6">
-        <v>5.701976076645696</v>
+        <v>4.21666255377311</v>
       </c>
       <c r="R6">
-        <v>5.701976076645696</v>
+        <v>37.949962983958</v>
       </c>
       <c r="S6">
-        <v>0.1808464068325435</v>
+        <v>0.07281128880416904</v>
       </c>
       <c r="T6">
-        <v>0.1808464068325435</v>
+        <v>0.1067728358830688</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1301303333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.390391</v>
+      </c>
+      <c r="I7">
+        <v>0.4028730131292778</v>
+      </c>
+      <c r="J7">
+        <v>0.5029891437391611</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>32.0437125</v>
+      </c>
+      <c r="N7">
+        <v>64.087425</v>
+      </c>
+      <c r="O7">
+        <v>0.1787240771757799</v>
+      </c>
+      <c r="P7">
+        <v>0.1399469470356803</v>
+      </c>
+      <c r="Q7">
+        <v>4.169858988862499</v>
+      </c>
+      <c r="R7">
+        <v>25.019153933175</v>
+      </c>
+      <c r="S7">
+        <v>0.07200310749055602</v>
+      </c>
+      <c r="T7">
+        <v>0.07039179505838658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1928755</v>
+      </c>
+      <c r="H8">
+        <v>0.385751</v>
+      </c>
+      <c r="I8">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J8">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>47.890007</v>
+      </c>
+      <c r="N8">
+        <v>95.78001399999999</v>
+      </c>
+      <c r="O8">
+        <v>0.2671069186198896</v>
+      </c>
+      <c r="P8">
+        <v>0.2091536763465644</v>
+      </c>
+      <c r="Q8">
+        <v>9.236809045128499</v>
+      </c>
+      <c r="R8">
+        <v>36.947236180514</v>
+      </c>
+      <c r="S8">
+        <v>0.1594967494878179</v>
+      </c>
+      <c r="T8">
+        <v>0.1039516477711083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1928755</v>
+      </c>
+      <c r="H9">
+        <v>0.385751</v>
+      </c>
+      <c r="I9">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J9">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>24.489942</v>
+      </c>
+      <c r="N9">
+        <v>73.46982600000001</v>
+      </c>
+      <c r="O9">
+        <v>0.136592858397365</v>
+      </c>
+      <c r="P9">
+        <v>0.1604351844054064</v>
+      </c>
+      <c r="Q9">
+        <v>4.723509808221</v>
+      </c>
+      <c r="R9">
+        <v>28.341058849326</v>
+      </c>
+      <c r="S9">
+        <v>0.08156328196287776</v>
+      </c>
+      <c r="T9">
+        <v>0.07973802837569662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1928755</v>
+      </c>
+      <c r="H10">
+        <v>0.385751</v>
+      </c>
+      <c r="I10">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J10">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>20.62554866666667</v>
+      </c>
+      <c r="N10">
+        <v>61.876646</v>
+      </c>
+      <c r="O10">
+        <v>0.1150391719340928</v>
+      </c>
+      <c r="P10">
+        <v>0.1351192952518773</v>
+      </c>
+      <c r="Q10">
+        <v>3.978163011857667</v>
+      </c>
+      <c r="R10">
+        <v>23.868978071146</v>
+      </c>
+      <c r="S10">
+        <v>0.06869299410910776</v>
+      </c>
+      <c r="T10">
+        <v>0.06715575663049662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1928755</v>
+      </c>
+      <c r="H11">
+        <v>0.385751</v>
+      </c>
+      <c r="I11">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J11">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>21.83893633333333</v>
+      </c>
+      <c r="N11">
+        <v>65.51680899999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1218068518956912</v>
+      </c>
+      <c r="P11">
+        <v>0.1430682758601985</v>
+      </c>
+      <c r="Q11">
+        <v>4.212195764759834</v>
+      </c>
+      <c r="R11">
+        <v>25.273174588559</v>
+      </c>
+      <c r="S11">
+        <v>0.07273415845268243</v>
+      </c>
+      <c r="T11">
+        <v>0.07110648628903918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.179444749129084</v>
-      </c>
-      <c r="H7">
-        <v>0.179444749129084</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>31.0303784479615</v>
-      </c>
-      <c r="N7">
-        <v>31.0303784479615</v>
-      </c>
-      <c r="O7">
-        <v>0.1766047256654188</v>
-      </c>
-      <c r="P7">
-        <v>0.1766047256654188</v>
-      </c>
-      <c r="Q7">
-        <v>5.568238475974987</v>
-      </c>
-      <c r="R7">
-        <v>5.568238475974987</v>
-      </c>
-      <c r="S7">
-        <v>0.1766047256654188</v>
-      </c>
-      <c r="T7">
-        <v>0.1766047256654188</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1928755</v>
+      </c>
+      <c r="H12">
+        <v>0.385751</v>
+      </c>
+      <c r="I12">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J12">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>32.40337933333333</v>
+      </c>
+      <c r="N12">
+        <v>97.210138</v>
+      </c>
+      <c r="O12">
+        <v>0.1807301219771816</v>
+      </c>
+      <c r="P12">
+        <v>0.2122766211002732</v>
+      </c>
+      <c r="Q12">
+        <v>6.249817990606333</v>
+      </c>
+      <c r="R12">
+        <v>37.498907943638</v>
+      </c>
+      <c r="S12">
+        <v>0.1079188331730125</v>
+      </c>
+      <c r="T12">
+        <v>0.1055037852172044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1928755</v>
+      </c>
+      <c r="H13">
+        <v>0.385751</v>
+      </c>
+      <c r="I13">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J13">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.0437125</v>
+      </c>
+      <c r="N13">
+        <v>64.087425</v>
+      </c>
+      <c r="O13">
+        <v>0.1787240771757799</v>
+      </c>
+      <c r="P13">
+        <v>0.1399469470356803</v>
+      </c>
+      <c r="Q13">
+        <v>6.18044707029375</v>
+      </c>
+      <c r="R13">
+        <v>24.721788281175</v>
+      </c>
+      <c r="S13">
+        <v>0.1067209696852238</v>
+      </c>
+      <c r="T13">
+        <v>0.06955515197729374</v>
       </c>
     </row>
   </sheetData>
